--- a/public/Excel.xlsx
+++ b/public/Excel.xlsx
@@ -11,35 +11,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>My simple string</t>
+    <t>teacher name</t>
   </si>
   <si>
-    <t>http://iamnater.com</t>
+    <t>T2</t>
   </si>
   <si>
-    <t>One big merged cell</t>
+    <t>cursos</t>
+  </si>
+  <si>
+    <t>programas</t>
+  </si>
+  <si>
+    <t>4.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt formatCode="[$-409]m/d/yy" numFmtId="164"/>
-  </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -61,79 +57,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="1"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="0" spans="1:5">
+      <c r="A0" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B0" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C0" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D0" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E0" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1" spans="1:5">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C1" s="0">
-        <f>B1 * 10</f>
-      </c>
-      <c r="D1" s="1">
-        <v>44475.5787542</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="0" t="b">
-        <v>true</v>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
+      <c r="E2" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:F2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" display="http://iamnater.com" address="http://iamnater.com" tooltip="http://iamnater.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>